--- a/Financial_Tracker_Dashboard-Excel--master/Financial Tracker Dashboard.xlsx
+++ b/Financial_Tracker_Dashboard-Excel--master/Financial Tracker Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Courses_Files\Data_Analyst_Files_&amp;_Resources\python_DA_Projects\togithub_DA\Financial_Statistics_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKAY\Client 1\Set 3\Financial_Tracker_Dashboard-Excel\Financial_Tracker_Dashboard-Excel--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA66DBE4-EDD9-4791-96E6-A3A764B04FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64A138-58FE-4449-88AD-A05E4889064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="16" r:id="rId1"/>
@@ -19,21 +19,28 @@
     <sheet name="Dashboard" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$G$32:$G$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$H$32:$H$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$G$44:$H$44</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$G$45:$H$45</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$G$44:$H$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$G$45:$H$45</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$G$32:$G$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$H$32:$H$37</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Analysis!$G$32:$G$37</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Analysis!$H$32:$H$37</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Analysis!$G$44:$H$44</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Analysis!$G$45:$H$45</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Analysis!$G$32:$G$37</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Analysis!$H$32:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -167,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmmm"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmmm"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -468,7 +475,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -477,7 +484,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -485,7 +492,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -501,7 +508,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -537,15 +544,15 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -573,39 +580,12 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -613,31 +593,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -669,17 +640,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -687,31 +649,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -735,6 +688,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -948,7 +955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1096,7 +1103,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-GH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870415983"/>
@@ -1166,7 +1173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1389,7 +1396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1602,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1804,7 +1811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2000,7 +2007,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2152,7 +2159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-GH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870415983"/>
@@ -2222,7 +2229,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-GH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2238,10 +2245,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2287,25 +2294,8 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>Income</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr" rtl="0">
-                    <a:defRPr sz="1000" b="1">
-                      <a:solidFill>
-                        <a:srgbClr val="FFCC29"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFCC29"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    </a:rPr>
-                    <a:t>9594000</a:t>
+                    <a:t>Income
+9.59Million</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2332,25 +2322,8 @@
                       </a:solidFill>
                       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     </a:rPr>
-                    <a:t>Expense</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="ctr" rtl="0">
-                    <a:defRPr sz="1000" b="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    </a:rPr>
-                    <a:t>5162620</a:t>
+                    <a:t>Expense
+5.16Million</a:t>
                   </a:r>
                 </a:p>
               </cx:txPr>
@@ -2375,10 +2348,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8788,7 +8761,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D74B198-1543-5884-9629-6045D9CCEADE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8838,7 +8811,7 @@
         <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535EAECE-D1A3-86B1-1F6F-822E43573BE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8904,7 +8877,7 @@
         <xdr:cNvPr id="24" name="Group 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167B9D9-149D-0B60-CA15-C0DC3194130B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8912,8 +8885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11148060" y="2186940"/>
-          <a:ext cx="2842260" cy="1348740"/>
+          <a:off x="10805160" y="2270760"/>
+          <a:ext cx="2766060" cy="1379220"/>
           <a:chOff x="11148060" y="2186940"/>
           <a:chExt cx="2842260" cy="1348740"/>
         </a:xfrm>
@@ -8923,7 +8896,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CF5E5B-C42A-E5F4-5422-BC40B1B2651A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8974,7 +8947,7 @@
           <xdr:cNvPr id="20" name="Group 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF940A1-7C14-293B-FE68-2CE7C24DCC3E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8993,7 +8966,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29D97CE-0DE3-9A2F-57D3-1CE01AEBF1F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9050,7 +9023,7 @@
             <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCD68F0-66F5-5BE4-9DA6-6F6BCB9287E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9109,8 +9082,8 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9119,7 +9092,7 @@
         <xdr:cNvPr id="19" name="Group 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B3664B-111F-1C2B-C491-E06F9929791D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9127,8 +9100,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9387840" y="3657600"/>
-          <a:ext cx="4572000" cy="830580"/>
+          <a:off x="9102090" y="3779520"/>
+          <a:ext cx="4956810" cy="868680"/>
           <a:chOff x="8679180" y="3931920"/>
           <a:chExt cx="4572000" cy="830580"/>
         </a:xfrm>
@@ -9138,7 +9111,7 @@
           <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8260B4A3-ACE8-D837-F391-9A951214149B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9189,7 +9162,7 @@
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Cover Page"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD84EE28-A315-4345-8BBA-3CE572096FE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9208,7 +9181,7 @@
             <xdr:cNvPr id="11" name="Graphic 10" descr="Paper">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD002C9A-0EEE-3262-4FBB-55B68637FE59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9246,7 +9219,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8096CDB0-A797-A278-4B27-08B9CADEFC09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9315,7 +9288,7 @@
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Detailed Report"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCD889A-B9A4-461A-95F5-FC91BDFBD6C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9334,7 +9307,7 @@
             <xdr:cNvPr id="14" name="Graphic 13" descr="Table">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA64EE3-99BE-3837-BCDD-6EED4DF244C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9372,7 +9345,7 @@
             <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EF02F3-6EDF-093C-A906-97FDE276C410}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9424,7 +9397,7 @@
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Dashboard"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E293D0CC-EFD6-4219-A97B-4ED7FA821CEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9443,7 +9416,7 @@
             <xdr:cNvPr id="17" name="Graphic 16" descr="Upward trend">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24376B3-F20B-0B6E-21D3-4CF40868C0CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9481,7 +9454,7 @@
             <xdr:cNvPr id="18" name="TextBox 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4144DE2B-D6F5-1386-805C-21421C0A1D92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9531,23 +9504,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57189</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="23" name="Group 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445496BE-1756-0299-40A7-19D749EA8CC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9555,10 +9528,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12740640" y="4762500"/>
-          <a:ext cx="1158240" cy="358140"/>
-          <a:chOff x="12672060" y="4084320"/>
-          <a:chExt cx="1158240" cy="358140"/>
+          <a:off x="12492990" y="4749163"/>
+          <a:ext cx="1584960" cy="718226"/>
+          <a:chOff x="13068813" y="4048709"/>
+          <a:chExt cx="1158240" cy="383598"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -9566,7 +9539,7 @@
           <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD4C9B9-014F-F0EF-5445-44335F201BAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9574,7 +9547,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12672060" y="4084320"/>
+            <a:off x="13068813" y="4048709"/>
             <a:ext cx="1158240" cy="358140"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9616,7 +9589,7 @@
           <xdr:cNvPr id="22" name="TextBox 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C3B7C6-8CD4-74DB-4C21-7374270558A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9624,7 +9597,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12755880" y="4099560"/>
+            <a:off x="13152633" y="4104647"/>
             <a:ext cx="975360" cy="327660"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -9668,7 +9641,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Rahul Rajan</a:t>
+              <a:t> Danso Aboagye Daniel</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN" sz="1100">
               <a:solidFill>
@@ -9704,7 +9677,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C841B9-3861-7185-1913-82BCB1DB3305}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9768,7 +9741,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Cover Page"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D88F9A8-7D32-4D48-957B-60AAA563B480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9776,8 +9749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4309534" y="5808134"/>
-          <a:ext cx="830580" cy="724890"/>
+          <a:off x="4195234" y="5945717"/>
+          <a:ext cx="830580" cy="741824"/>
           <a:chOff x="1150620" y="814350"/>
           <a:chExt cx="838200" cy="900150"/>
         </a:xfrm>
@@ -9787,7 +9760,7 @@
           <xdr:cNvPr id="4" name="Graphic 3" descr="Paper">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6303927-474B-B629-CF9B-925EDB2A5447}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9825,7 +9798,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F82A2F-6840-2BCB-F57E-AB547D12BE75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9909,7 +9882,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tooltip="Detailed Report"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D776AC-6DD7-42D8-A702-35A90FCB50F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9917,8 +9890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6248399" y="5723468"/>
-          <a:ext cx="1058335" cy="804334"/>
+          <a:off x="6083299" y="5861051"/>
+          <a:ext cx="1032935" cy="821268"/>
           <a:chOff x="1160411" y="2020905"/>
           <a:chExt cx="797930" cy="1034715"/>
         </a:xfrm>
@@ -9928,7 +9901,7 @@
           <xdr:cNvPr id="7" name="Graphic 6" descr="Table">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6340D067-FA09-E7CD-BFA9-083A8A67CC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9966,7 +9939,7 @@
           <xdr:cNvPr id="8" name="TextBox 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A0BB01-7E1F-AE9A-07DE-6E9BEB68DBC2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10033,7 +10006,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="Dashboard"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A459898-6BEB-4124-A4CE-3D910C6B3338}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10041,8 +10014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8608907" y="5854843"/>
-          <a:ext cx="822960" cy="662940"/>
+          <a:off x="8393007" y="5992426"/>
+          <a:ext cx="797560" cy="679874"/>
           <a:chOff x="1181100" y="3291840"/>
           <a:chExt cx="838200" cy="838200"/>
         </a:xfrm>
@@ -10052,7 +10025,7 @@
           <xdr:cNvPr id="10" name="Graphic 9" descr="Upward trend">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E87810-E9F6-78F4-2AC8-C7E019CE978A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10090,7 +10063,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF181BE0-0F70-DF07-78B5-77260E8B863D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10147,15 +10120,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>160865</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>23708</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>914398</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>152399</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10165,7 +10138,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10218,7 +10191,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99A4D46-01D2-AE85-22D6-4F732F5507F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10256,7 +10229,7 @@
             <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B302BF54-67B5-F362-E0FD-49B1B4665AFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10283,8 +10256,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9812865" y="8568265"/>
-              <a:ext cx="2167467" cy="2319867"/>
+              <a:off x="10807698" y="8655048"/>
+              <a:ext cx="2112434" cy="2370667"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10303,7 +10276,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
+                <a:rPr lang="en-GH" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10334,7 +10307,7 @@
             <xdr:cNvPr id="5" name="Chart 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65301271-1A11-D09C-0E8E-81E84989FB92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10361,8 +10334,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14156266" y="6646333"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="13773149" y="6690783"/>
+              <a:ext cx="4440767" cy="2802467"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10381,7 +10354,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
+                <a:rPr lang="en-GH" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10410,7 +10383,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418B2E86-046B-7D82-4987-BB895E14F2ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10451,7 +10424,7 @@
         <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AA932F-B08C-8A0D-0435-ABB53AF18B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10544,7 +10517,7 @@
         <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E18548-2733-AE5C-578D-13A8784756C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10609,7 +10582,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEF2F71-0BE5-11C3-2EF1-8567C9D2D403}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10674,7 +10647,7 @@
         <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AB1CCD-A452-D7AF-1D55-A7ED26FCCC48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10682,8 +10655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2781300" y="441960"/>
-          <a:ext cx="1775460" cy="1767840"/>
+          <a:off x="2705100" y="457200"/>
+          <a:ext cx="1718310" cy="1844040"/>
           <a:chOff x="1859280" y="784860"/>
           <a:chExt cx="1402080" cy="1295400"/>
         </a:xfrm>
@@ -10693,7 +10666,7 @@
           <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0679CE3-5601-DDE2-0768-3B51930A028A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10754,7 +10727,7 @@
           <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AA6F90-10FA-BE71-498C-D9CCA78868D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10825,7 +10798,7 @@
         <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30968E8-C6F5-9EB2-32C9-BC8A27312C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10833,8 +10806,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4704080" y="464820"/>
-          <a:ext cx="1775460" cy="1767840"/>
+          <a:off x="4570730" y="480060"/>
+          <a:ext cx="1718310" cy="1844040"/>
           <a:chOff x="1859280" y="784860"/>
           <a:chExt cx="1402080" cy="1295400"/>
         </a:xfrm>
@@ -10844,7 +10817,7 @@
           <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F37F171-059C-E092-BDEA-ED64D07645B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10905,7 +10878,7 @@
           <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49348CC-D784-EDE9-55BF-D7C4532B0DB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10976,7 +10949,7 @@
         <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B9369A-3B1F-331B-D270-2384632767E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10984,8 +10957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6634480" y="457200"/>
-          <a:ext cx="1775460" cy="1767840"/>
+          <a:off x="6443980" y="472440"/>
+          <a:ext cx="1718310" cy="1844040"/>
           <a:chOff x="1859280" y="784860"/>
           <a:chExt cx="1402080" cy="1295400"/>
         </a:xfrm>
@@ -10995,7 +10968,7 @@
           <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F4ABC4-382E-637E-119C-AEFB8B4A9B35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11056,7 +11029,7 @@
           <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAB2CBF-B925-A6E6-E890-6356A2B35EF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11127,7 +11100,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3F284A-0BE1-BA87-31ED-BBCFAC780211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11135,8 +11108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8580120" y="449580"/>
-          <a:ext cx="1775460" cy="1767840"/>
+          <a:off x="8313420" y="464820"/>
+          <a:ext cx="1727835" cy="1844040"/>
           <a:chOff x="1859280" y="784860"/>
           <a:chExt cx="1402080" cy="1295400"/>
         </a:xfrm>
@@ -11146,7 +11119,7 @@
           <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF473C7-B248-6AF6-327E-03DD08E92576}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11207,7 +11180,7 @@
           <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1D9608-6FE1-F98A-8111-C86DCB117C1B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11278,7 +11251,7 @@
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3508B2F2-8B35-B4AB-6A21-A1E37A23E377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11286,8 +11259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4351020" y="2362200"/>
-          <a:ext cx="6042660" cy="2506980"/>
+          <a:off x="4217670" y="2453640"/>
+          <a:ext cx="5852160" cy="2613660"/>
           <a:chOff x="1859280" y="784860"/>
           <a:chExt cx="1402080" cy="1295400"/>
         </a:xfrm>
@@ -11297,7 +11270,7 @@
           <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06677B7-AAFF-C4E5-8350-A13F85294601}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11358,7 +11331,7 @@
           <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1547696A-4E78-76BA-633D-EE37622C84D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11429,7 +11402,7 @@
         <xdr:cNvPr id="21" name="Chart 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD9220C-84BA-4792-91FA-A1AA8615DF7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11467,7 +11440,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27304DB5-21AF-710A-482B-A6F3E8A968C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11475,8 +11448,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3505200" y="952500"/>
-          <a:ext cx="441960" cy="472440"/>
+          <a:off x="3409950" y="990600"/>
+          <a:ext cx="422910" cy="487680"/>
           <a:chOff x="3505200" y="952500"/>
           <a:chExt cx="441960" cy="472440"/>
         </a:xfrm>
@@ -11486,7 +11459,7 @@
           <xdr:cNvPr id="22" name="TextBox 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0F76A6-58E0-4C53-D7FC-A2365725B6BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11531,6 +11504,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>ROI</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
@@ -11542,7 +11516,7 @@
           <xdr:cNvPr id="24" name="TextBox 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC2FBE7-1098-583B-49EB-D505DD821B46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11587,6 +11561,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>6%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1050" b="1">
@@ -11618,7 +11593,7 @@
         <xdr:cNvPr id="26" name="Chart 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689896F7-0B78-4B78-A498-513C7C09369E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11656,7 +11631,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6BB821-D58B-8250-11AB-FC81C5E14A29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11664,8 +11639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5417820" y="1043940"/>
-          <a:ext cx="495300" cy="441960"/>
+          <a:off x="5265420" y="1082040"/>
+          <a:ext cx="476250" cy="464820"/>
           <a:chOff x="5417820" y="1043940"/>
           <a:chExt cx="495300" cy="441960"/>
         </a:xfrm>
@@ -11676,7 +11651,7 @@
           <xdr:cNvPr id="31" name="TextBox 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD7D8FD-D4E6-0485-FB04-BEDB6C8E6FC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11725,7 +11700,7 @@
           <xdr:cNvPr id="32" name="TextBox 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0897A61F-F77D-F81C-721B-2B4D983667F3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11770,6 +11745,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>6%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" b="1">
@@ -11799,7 +11775,7 @@
         <xdr:cNvPr id="35" name="Chart 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4028ACA3-B13F-4F37-BEC3-F62CEE90D5A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11837,7 +11813,7 @@
         <xdr:cNvPr id="39" name="Group 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB25A487-16F4-DDA5-5EB5-A6F0E901C6F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11845,8 +11821,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7330440" y="998220"/>
-          <a:ext cx="464820" cy="487680"/>
+          <a:off x="7101840" y="1036320"/>
+          <a:ext cx="464820" cy="510540"/>
           <a:chOff x="7330440" y="998220"/>
           <a:chExt cx="464820" cy="487680"/>
         </a:xfrm>
@@ -11856,7 +11832,7 @@
           <xdr:cNvPr id="36" name="TextBox 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F20A1DB-E584-9AE7-3FED-1EB7811C53C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11901,6 +11877,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>ROA</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
@@ -11912,7 +11889,7 @@
           <xdr:cNvPr id="37" name="TextBox 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6836E9BD-8EE9-65FE-E14C-74E79A6D1B28}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11957,6 +11934,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>1%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
@@ -11984,7 +11962,7 @@
         <xdr:cNvPr id="38" name="Chart 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B337656-9213-4F7B-8F56-BA910C75554E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12024,7 +12002,7 @@
             <xdr:cNvPr id="40" name="Chart 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77759DD-FBFC-436D-A145-278AFE5CE22A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12051,8 +12029,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2019300" y="2270760"/>
-              <a:ext cx="2232660" cy="2590800"/>
+              <a:off x="1962150" y="2362200"/>
+              <a:ext cx="2175510" cy="2697480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12071,7 +12049,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
+                <a:rPr lang="en-GH" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -12102,7 +12080,7 @@
             <xdr:cNvPr id="41" name="Chart 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1164CF6-6464-4679-A14B-F5345CF33776}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12129,8 +12107,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="2400300"/>
-              <a:ext cx="5440680" cy="2438400"/>
+              <a:off x="4667250" y="2499360"/>
+              <a:ext cx="5269230" cy="2537460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12149,7 +12127,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
+                <a:rPr lang="en-GH" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -12178,7 +12156,7 @@
         <xdr:cNvPr id="43" name="Chart 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CF5471-43EE-4F59-81A3-5F558CB006C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12216,7 +12194,7 @@
         <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18254CCA-303B-85BA-D6CC-2D299F19399B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12298,7 +12276,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0920FA16-AF2E-AB5C-F92A-2764A17AA3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12367,7 +12345,7 @@
         <xdr:cNvPr id="46" name="TextBox 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9940F53C-E65D-4262-17EB-3475E4CFF3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12413,6 +12391,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>101%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1800" b="1">
@@ -12443,7 +12422,7 @@
         <xdr:cNvPr id="47" name="TextBox 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D71D7B-674D-39C5-2A11-12E8BFC71C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12489,6 +12468,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>84%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1800" b="1">
@@ -12519,7 +12499,7 @@
         <xdr:cNvPr id="49" name="Straight Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071AF678-6A19-5712-0E19-A3AC47D4A0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12576,7 +12556,7 @@
           <xdr:col>21</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12586,7 +12566,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E55C714-7EDC-A049-24BD-5E1ED6B66AE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12640,7 +12620,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Cover Page"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03324481-6AD6-4496-75A9-246548997E1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12648,8 +12628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1173480" y="1096290"/>
-          <a:ext cx="830580" cy="724890"/>
+          <a:off x="1154430" y="1134390"/>
+          <a:ext cx="792480" cy="755370"/>
           <a:chOff x="1150620" y="814350"/>
           <a:chExt cx="838200" cy="900150"/>
         </a:xfrm>
@@ -12659,7 +12639,7 @@
           <xdr:cNvPr id="59" name="Graphic 58" descr="Paper">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8C5CE7-E75B-58FF-634F-721593C8BD6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12697,7 +12677,7 @@
           <xdr:cNvPr id="62" name="TextBox 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86A5C50-3EF5-111B-7F38-DB631881B62E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12781,7 +12761,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Detailed Report"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3BF89C-26D6-453D-ED31-2E1A2DC9899B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000090C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12789,8 +12769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1196340" y="1912620"/>
-          <a:ext cx="701040" cy="937260"/>
+          <a:off x="1177290" y="1988820"/>
+          <a:ext cx="662940" cy="975360"/>
           <a:chOff x="1196340" y="1912620"/>
           <a:chExt cx="762000" cy="1143000"/>
         </a:xfrm>
@@ -12800,7 +12780,7 @@
           <xdr:cNvPr id="61" name="Graphic 60" descr="Table">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDDF0B1-FAD3-4C40-3BBE-BEB17B0BEA11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12838,7 +12818,7 @@
           <xdr:cNvPr id="63" name="TextBox 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376A8F8-3FF6-8432-D897-1191A27A19D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12909,7 +12889,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="Dashboard"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1666111B-A638-C2EE-5C3F-3D233EE7F7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12917,8 +12897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1188720" y="3048000"/>
-          <a:ext cx="822960" cy="662940"/>
+          <a:off x="1169670" y="3169920"/>
+          <a:ext cx="784860" cy="693420"/>
           <a:chOff x="1181100" y="3291840"/>
           <a:chExt cx="838200" cy="838200"/>
         </a:xfrm>
@@ -12928,7 +12908,7 @@
           <xdr:cNvPr id="54" name="Graphic 53" descr="Upward trend">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480B1601-EAB3-5A81-C45E-D303CA7965DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12966,7 +12946,7 @@
           <xdr:cNvPr id="3072" name="TextBox 3071">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD96026-44C6-B908-B648-11E4488CEEB8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000000C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13031,7 +13011,7 @@
         <xdr:cNvPr id="3073" name="Rectangle: Rounded Corners 3072">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA50FC68-E2F4-123C-53CB-414BA6D06DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13115,7 +13095,7 @@
         <xdr:cNvPr id="3079" name="TextBox 3078">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EFA53A-C889-CC46-1B03-B6EE343D053A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13194,8 +13174,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="388619" y="572424"/>
-          <a:ext cx="807720" cy="683491"/>
+          <a:off x="378951" y="595623"/>
+          <a:ext cx="787622" cy="711200"/>
           <a:chOff x="388619" y="510540"/>
           <a:chExt cx="807720" cy="609600"/>
         </a:xfrm>
@@ -13232,6 +13212,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>Quick Ratio</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="800" b="1"/>
@@ -13270,6 +13251,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>1.463</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="800" b="1"/>
@@ -13546,17 +13528,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7216F0F8-98C3-4341-A165-5A43793FDF10}">
   <dimension ref="Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="75"/>
+    <col min="1" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="12" spans="17:17" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="Q12" s="76"/>
+    <row r="12" spans="17:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q12" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13568,17 +13548,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F410EB3-C1EE-4E1C-A321-75217C899489}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="15" width="14.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -13592,109 +13572,109 @@
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
     </row>
-    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="47">
         <v>43831</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="48">
         <v>43862</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="48">
         <v>43891</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="49">
         <v>43922</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="47">
         <v>43952</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="48">
         <v>43983</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="48">
         <v>44013</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="49">
         <v>44044</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="47">
         <v>44075</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="48">
         <v>44105</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="48">
         <v>44136</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="49">
         <v>44166</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="50" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="8">
@@ -13734,9 +13714,9 @@
         <v>10533125</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="68" t="s">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="69"/>
+      <c r="C7" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8">
@@ -13776,9 +13756,9 @@
         <v>2154240</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="68" t="s">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="69"/>
+      <c r="C8" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="8">
@@ -13830,9 +13810,9 @@
         <v>8378885</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68" t="s">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="69"/>
+      <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="8">
@@ -13872,9 +13852,9 @@
         <v>2454800</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68" t="s">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="69"/>
+      <c r="C10" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="8">
@@ -13926,9 +13906,9 @@
         <v>4609040</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="68" t="s">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="69"/>
+      <c r="C11" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="8">
@@ -13980,9 +13960,9 @@
         <v>5924085</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8">
@@ -14034,9 +14014,9 @@
         <v>888612.75</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70" t="s">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="70"/>
+      <c r="C13" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="8">
@@ -14088,11 +14068,11 @@
         <v>5035472.25</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67" t="s">
+    <row r="14" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="11">
@@ -14132,9 +14112,9 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="72" t="s">
+    <row r="15" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="20">
@@ -14186,9 +14166,9 @@
         <v>0.47806061828754526</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67"/>
-      <c r="C16" s="73" t="s">
+    <row r="16" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="23">
@@ -14228,9 +14208,9 @@
         <v>1.7666666666666667E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68" t="s">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="69"/>
+      <c r="C17" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="14">
@@ -14270,9 +14250,9 @@
         <v>1.4630000000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="68" t="s">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="69"/>
+      <c r="C18" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="14">
@@ -14312,9 +14292,9 @@
         <v>4.3890000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="74" t="s">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="69"/>
+      <c r="C19" s="56" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="17">
@@ -14354,9 +14334,9 @@
         <v>5.1205000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="69"/>
+      <c r="C20" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="8">
@@ -14396,9 +14376,9 @@
         <v>8998200</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68" t="s">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="69"/>
+      <c r="C21" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="9">
@@ -14450,9 +14430,9 @@
         <v>1.1705813384899202</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68" t="s">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="69"/>
+      <c r="C22" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="8">
@@ -14492,9 +14472,9 @@
         <v>6045200</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="69"/>
-      <c r="C23" s="70" t="s">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="70"/>
+      <c r="C23" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="10">
@@ -14567,6 +14547,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:O16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -14578,13 +14565,6 @@
           <x14:id>{55E5B870-5AD8-4404-96D4-67B13CB2788E}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:O23">
@@ -14630,20 +14610,20 @@
       <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="14.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -14657,109 +14637,109 @@
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
     </row>
-    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
     </row>
-    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="30">
         <v>43831</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="31">
         <v>43862</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="31">
         <v>43891</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="32">
         <v>43922</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="30">
         <v>43952</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="31">
         <v>43983</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="31">
         <v>44013</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="32">
         <v>44044</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="30">
         <v>44075</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="31">
         <v>44105</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="31">
         <v>44136</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="32">
         <v>44166</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="8">
@@ -14799,9 +14779,9 @@
         <v>10533125</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45" t="s">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8">
@@ -14841,9 +14821,9 @@
         <v>2154240</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="C8" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="8">
@@ -14895,9 +14875,9 @@
         <v>8378885</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45" t="s">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="8">
@@ -14937,9 +14917,9 @@
         <v>2454800</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="8">
@@ -14991,9 +14971,9 @@
         <v>4609040</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45" t="s">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="8">
@@ -15045,9 +15025,9 @@
         <v>5924085</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45" t="s">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8">
@@ -15099,9 +15079,9 @@
         <v>888612.75</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+    <row r="13" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76"/>
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="8">
@@ -15153,11 +15133,11 @@
         <v>5035472.25</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="11">
@@ -15197,9 +15177,9 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="49" t="s">
+    <row r="15" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="20">
@@ -15251,9 +15231,9 @@
         <v>0.47806061828754526</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50" t="s">
+    <row r="16" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75"/>
+      <c r="C16" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="23">
@@ -15293,9 +15273,9 @@
         <v>1.7666666666666667E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45" t="s">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+      <c r="C17" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="14">
@@ -15335,9 +15315,9 @@
         <v>1.4630000000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="C18" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="14">
@@ -15377,9 +15357,9 @@
         <v>4.3890000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="51" t="s">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75"/>
+      <c r="C19" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="17">
@@ -15419,9 +15399,9 @@
         <v>5.1205000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45" t="s">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75"/>
+      <c r="C20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="8">
@@ -15461,9 +15441,9 @@
         <v>8998200</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="C21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="9">
@@ -15515,9 +15495,9 @@
         <v>1.1705813384899202</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="C22" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="8">
@@ -15557,9 +15537,9 @@
         <v>6045200</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47" t="s">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="76"/>
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="10">
@@ -15611,28 +15591,28 @@
         <v>0.76242969628796398</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C30" s="54" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="42">
         <v>6</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="42"/>
       <c r="I30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="53" t="str">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="41" t="str">
         <f>C6</f>
         <v>Income</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C31,$C$6:$C$23,0),D30)</f>
         <v>9594000</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="44">
         <f>MAX($D$6:$O$6)*1.25</f>
         <v>13166406.25</v>
       </c>
@@ -15640,16 +15620,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C32" s="53" t="str">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="41" t="str">
         <f t="shared" ref="C32:C48" si="8">C7</f>
         <v>Cost of Goods Sold</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C32,$C$6:$C$23,0),D30)</f>
         <v>2185920</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="44">
         <f>MAX($D$7:$O$7)*1.25</f>
         <v>3947200</v>
       </c>
@@ -15665,16 +15645,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="53" t="str">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Gross Profit </v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C33,$C$6:$C$23,0),D30)</f>
         <v>7408080</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="44">
         <f>MAX($D$8:$O$8)*1.25</f>
         <v>10473606.25</v>
       </c>
@@ -15689,16 +15669,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="53" t="str">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Total Operating Expenses  </v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C34,$C$6:$C$23,0),D30)</f>
         <v>2976700</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="44">
         <f>MAX($D$9:$O$9)*1.25</f>
         <v>4254250</v>
       </c>
@@ -15713,16 +15693,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="53" t="str">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Total Expenses</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C35,$C$6:$C$23,0),D30)</f>
         <v>5162620</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="44">
         <f>MAX($D$10:$O$10)*1.25</f>
         <v>7759450</v>
       </c>
@@ -15738,16 +15718,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="53" t="str">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="41" t="str">
         <f t="shared" si="8"/>
         <v>EBIT</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C36,$C$6:$C$23,0),D30)</f>
         <v>4431380</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="44">
         <f>MAX($D$11:$O$11)*1.25</f>
         <v>7405106.25</v>
       </c>
@@ -15763,16 +15743,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="53" t="str">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Tax</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C37,$C$6:$C$23,0),D30)</f>
         <v>664707</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="44">
         <f>MAX($D$12:$O$12)*1.25</f>
         <v>1110765.9375</v>
       </c>
@@ -15787,16 +15767,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="53" t="str">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="41" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Net Profit   </v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="41">
         <f>INDEX($D$6:$O$23,MATCH(C38,$C$6:$C$23,0),D30)</f>
         <v>3766673</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="44">
         <f>MAX($D$13:$O$13)*1.25</f>
         <v>6294340.3125</v>
       </c>
@@ -15804,16 +15784,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="53" t="str">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="41" t="str">
         <f t="shared" si="8"/>
         <v>ROI</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="43">
         <f>INDEX($D$6:$O$23,MATCH(C39,$C$6:$C$23,0),D30)</f>
         <v>6.3E-2</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="43">
         <f>MAX($D$14:$O$14)*1.25</f>
         <v>9.5000000000000001E-2</v>
       </c>
@@ -15821,16 +15801,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="53" t="str">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Net Profit Margin Ratio(NPM)</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="43">
         <f t="shared" ref="D40:D47" si="9">INDEX($D$6:$O$23,MATCH(C40,$C$6:$C$23,0),D39)</f>
         <v>0.32013340606634239</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="43">
         <f>MAX($D$15:$O$15)*1.25</f>
         <v>0.59757577285943153</v>
       </c>
@@ -15838,16 +15818,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="53" t="str">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="41" t="str">
         <f t="shared" si="8"/>
         <v>ROA</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="43">
         <f t="shared" si="9"/>
         <v>1.0666666666666666E-2</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="43">
         <f>MAX($D$16:$O$16)*1.25</f>
         <v>2.8750000000000005E-2</v>
       </c>
@@ -15855,44 +15835,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="53" t="str">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Quick Ratio</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="41">
         <f t="shared" si="9"/>
         <v>1.4630000000000003</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="41">
         <f>MAX($D$17:$O$17)*1.25</f>
         <v>2.9012500000000001</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="53" t="str">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Current Ratio</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="41">
         <f t="shared" si="9"/>
         <v>4.5210000000000008</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="41">
         <f>MAX($D$18:$O$18)*1.25</f>
         <v>5.651250000000001</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="53" t="str">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="41" t="str">
         <f t="shared" si="8"/>
         <v>EPS</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="41">
         <f t="shared" si="9"/>
         <v>8.1234999999999999</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="44">
         <f>MAX($D$19:$O$19)*1.25</f>
         <v>10.154375</v>
       </c>
@@ -15903,16 +15883,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="53" t="str">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="41" t="str">
         <f>C20</f>
         <v>Target Income</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="41">
         <f t="shared" si="9"/>
         <v>8998200</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="44">
         <f>MAX($D$20:$O$20)*1.25</f>
         <v>12375000</v>
       </c>
@@ -15925,44 +15905,44 @@
         <v>5162620</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="53" t="str">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Target Income Achieved</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="43">
         <f>INDEX($D$6:$O$23,MATCH(C46,$C$6:$C$23,0),D30)</f>
         <v>1.0079425113464449</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="43">
         <f>MAX($D$21:$O$21)*1.25</f>
         <v>1.4632266731124002</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="53" t="str">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="41" t="str">
         <f>C22</f>
         <v>Target Expenses</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="41">
         <f t="shared" si="9"/>
         <v>6225400</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="44">
         <f>MAX($D$22:$O$22)*1.25</f>
         <v>7807250</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="53" t="str">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="41" t="str">
         <f t="shared" si="8"/>
         <v>Expenses Reached</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="43">
         <f>INDEX($D$6:$O$23,MATCH(C48,$C$6:$C$23,0),D30)</f>
         <v>0.84473860754315633</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="43">
         <f>MAX($D$23:$O$23)*1.25</f>
         <v>1.2985440548908043</v>
       </c>
@@ -15990,9 +15970,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -16019,9 +15999,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="52"/>
+    <col min="1" max="16384" width="8.85546875" style="40"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16045,7 +16025,7 @@
                     <xdr:col>21</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
